--- a/va_facility_data_2025-02-20/Biloxi VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Biloxi%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Biloxi VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Biloxi%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R370aa4ccfa80419694d4257508076c67"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R2cfc0432ce454f7fa23e6585a82e49a9"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R6ceb57a6482c4eddab7e09b08b4de65c"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R4f0adde09cd840be8abf37f40b371519"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rf64af957b215445999936be8e6841211"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R51d9ced6e3894c68a08f5a8bd02fe6c9"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R76d21442ff5d4945be14c09f71cc7207"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R2c156c6f6010484fbac4217b51c2a31f"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R02f255a0471543ee89e36573cd7fe42d"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Ra78f68e50f30411c94d71ca40de4212d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R1da2cd10369c4b25b1a5e795d6a6884c"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R4d81f57cebca4f48a1017fded66c420f"/>
   </x:sheets>
 </x:workbook>
 </file>
